--- a/spliced/walkingToRunning/2023-04-03_16-54-49/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-54-49/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.220451354980469</v>
+        <v>-7.333617687225342</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.4212532043457</v>
+        <v>-4.549784660339356</v>
       </c>
       <c r="C2" t="n">
-        <v>3.805822134017944</v>
+        <v>0.0833368301391601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-10.96350479125977</v>
+        <v>-15.08706188201904</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.391891479492188</v>
+        <v>-8.937231063842773</v>
       </c>
       <c r="C3" t="n">
-        <v>2.885201692581177</v>
+        <v>-1.605889558792114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-7.85678768157959</v>
+        <v>11.69874000549316</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.700175285339356</v>
+        <v>-22.40719985961914</v>
       </c>
       <c r="C4" t="n">
-        <v>4.035121917724609</v>
+        <v>1.197917938232422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.866809844970703</v>
+        <v>3.118687152862549</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.858870506286621</v>
+        <v>-6.122324466705322</v>
       </c>
       <c r="C5" t="n">
-        <v>4.48725700378418</v>
+        <v>8.912668228149414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.333617687225342</v>
+        <v>-8.666399955749512</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.549784660339356</v>
+        <v>-21.93803024291992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0833368301391601</v>
+        <v>20.0407600402832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-15.08706188201904</v>
+        <v>-24.77190589904785</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.937231063842773</v>
+        <v>16.44706535339355</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.605889558792114</v>
+        <v>-12.57914733886719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.69874000549316</v>
+        <v>1.322300910949707</v>
       </c>
       <c r="B8" t="n">
-        <v>-22.40719985961914</v>
+        <v>-0.346986711025238</v>
       </c>
       <c r="C8" t="n">
-        <v>1.197917938232422</v>
+        <v>-9.815587043762209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.118687152862549</v>
+        <v>27.22784423828125</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.122324466705322</v>
+        <v>-27.38262748718262</v>
       </c>
       <c r="C9" t="n">
-        <v>8.912668228149414</v>
+        <v>-23.78179931640625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.666399955749512</v>
+        <v>49.64927673339844</v>
       </c>
       <c r="B10" t="n">
-        <v>-21.93803024291992</v>
+        <v>-42.73597717285156</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0407600402832</v>
+        <v>-6.524261474609375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-24.77190589904785</v>
+        <v>-3.964775562286377</v>
       </c>
       <c r="B11" t="n">
-        <v>16.44706535339355</v>
+        <v>4.51526403427124</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.57914733886719</v>
+        <v>1.280887007713318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.322300910949707</v>
+        <v>39.84653091430664</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.346986711025238</v>
+        <v>-19.79646873474121</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.815587043762209</v>
+        <v>38.97504425048828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>27.22784423828125</v>
+        <v>-19.31760787963867</v>
       </c>
       <c r="B13" t="n">
-        <v>-27.38262748718262</v>
+        <v>17.29528427124023</v>
       </c>
       <c r="C13" t="n">
-        <v>-23.78179931640625</v>
+        <v>-8.18376350402832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>49.64927673339844</v>
+        <v>-16.73611831665039</v>
       </c>
       <c r="B14" t="n">
-        <v>-42.73597717285156</v>
+        <v>-1.23279333114624</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.524261474609375</v>
+        <v>-18.61682319641113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.964775562286377</v>
+        <v>-40.93106842041016</v>
       </c>
       <c r="B15" t="n">
-        <v>4.51526403427124</v>
+        <v>-28.66251182556152</v>
       </c>
       <c r="C15" t="n">
-        <v>1.280887007713318</v>
+        <v>5.111406803131104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39.84653091430664</v>
+        <v>-5.353846549987793</v>
       </c>
       <c r="B16" t="n">
-        <v>-19.79646873474121</v>
+        <v>3.492556095123291</v>
       </c>
       <c r="C16" t="n">
-        <v>38.97504425048828</v>
+        <v>14.51318454742432</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-19.31760787963867</v>
+        <v>-5.202733993530273</v>
       </c>
       <c r="B17" t="n">
-        <v>17.29528427124023</v>
+        <v>10.5782413482666</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.18376350402832</v>
+        <v>3.768710374832153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-16.73611831665039</v>
+        <v>17.96537399291992</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.23279333114624</v>
+        <v>-41.82672500610352</v>
       </c>
       <c r="C18" t="n">
-        <v>-18.61682319641113</v>
+        <v>13.37196350097656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-40.93106842041016</v>
+        <v>16.90632247924805</v>
       </c>
       <c r="B19" t="n">
-        <v>-28.66251182556152</v>
+        <v>11.39815711975098</v>
       </c>
       <c r="C19" t="n">
-        <v>5.111406803131104</v>
+        <v>-9.546463966369627</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.353846549987793</v>
+        <v>-13.79934120178223</v>
       </c>
       <c r="B20" t="n">
-        <v>3.492556095123291</v>
+        <v>-5.43239688873291</v>
       </c>
       <c r="C20" t="n">
-        <v>14.51318454742432</v>
+        <v>-14.25337219238281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.202733993530273</v>
+        <v>-7.913525104522705</v>
       </c>
       <c r="B21" t="n">
-        <v>10.5782413482666</v>
+        <v>-43.03920745849609</v>
       </c>
       <c r="C21" t="n">
-        <v>3.768710374832153</v>
+        <v>5.675649166107178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-19.80719947814941</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17.96865081787109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9991121292114258</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.307936668395996</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-36.55269622802734</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44.45186233520508</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-72.68199157714844</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-20.47943878173828</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-39.62965774536133</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-8.546328544616699</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6573230028152466</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-10.66314029693604</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-15.78201103210449</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-11.37719249725342</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.033545017242432</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-11.98593044281006</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.52801513671875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.990962028503418</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-9.182360649108888</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19.98668098449707</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.591425895690918</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14.62302780151367</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-34.03761672973633</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.29042530059814</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-34.80189895629883</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.59354972839356</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-21.27434158325196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-21.16343307495117</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.425243377685547</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.02677822113037</v>
       </c>
     </row>
   </sheetData>
